--- a/import/prep/excel_original_receipt/63-7ทะเบียนคุมใบแจ้งหนี้ใบเสร็จ กพ63 (1-30เมย63).xlsx
+++ b/import/prep/excel_original_receipt/63-7ทะเบียนคุมใบแจ้งหนี้ใบเสร็จ กพ63 (1-30เมย63).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/atitayasamaset/Detail/WMA/excel (TEST)/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thansitar/Downloads/excel_original_receipt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03A15BB6-1F83-3842-8A81-5CD5B369A489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{996CEAE9-154E-1946-BB97-1CF11AB97307}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="520" windowWidth="28800" windowHeight="16460" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="520" windowWidth="28800" windowHeight="16460" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="type2" sheetId="1" r:id="rId1"/>
@@ -12119,36 +12119,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -12167,10 +12137,40 @@
     <xf numFmtId="165" fontId="8" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="8" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="8" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -64817,8 +64817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AB843"/>
   <sheetViews>
-    <sheetView topLeftCell="E220" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P158" sqref="P158"/>
+    <sheetView tabSelected="1" topLeftCell="E224" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F246" sqref="F246"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="24" x14ac:dyDescent="0.4"/>
@@ -64849,24 +64849,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.5">
-      <c r="A1" s="151" t="s">
+      <c r="A1" s="141" t="s">
         <v>3446</v>
       </c>
-      <c r="B1" s="151"/>
-      <c r="C1" s="151"/>
-      <c r="D1" s="151"/>
-      <c r="E1" s="151"/>
-      <c r="F1" s="151"/>
-      <c r="G1" s="151"/>
-      <c r="H1" s="151"/>
-      <c r="I1" s="151"/>
-      <c r="J1" s="151"/>
-      <c r="K1" s="151"/>
-      <c r="L1" s="151"/>
-      <c r="M1" s="151"/>
-      <c r="N1" s="151"/>
-      <c r="O1" s="151"/>
-      <c r="P1" s="151"/>
+      <c r="B1" s="141"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="141"/>
+      <c r="I1" s="141"/>
+      <c r="J1" s="141"/>
+      <c r="K1" s="141"/>
+      <c r="L1" s="141"/>
+      <c r="M1" s="141"/>
+      <c r="N1" s="141"/>
+      <c r="O1" s="141"/>
+      <c r="P1" s="141"/>
       <c r="Q1" s="59"/>
       <c r="R1" s="60"/>
       <c r="S1" s="61"/>
@@ -64910,7 +64910,7 @@
       <c r="C3" s="135" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="152" t="s">
+      <c r="D3" s="142" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="135" t="s">
@@ -64920,47 +64920,47 @@
       <c r="G3" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="153" t="s">
+      <c r="H3" s="143" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="155" t="s">
+      <c r="I3" s="145" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="144" t="s">
+      <c r="J3" s="147" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="157" t="s">
+      <c r="K3" s="149" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="144" t="s">
+      <c r="L3" s="147" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="144" t="s">
+      <c r="M3" s="147" t="s">
         <v>16</v>
       </c>
-      <c r="N3" s="144" t="s">
+      <c r="N3" s="147" t="s">
         <v>17</v>
       </c>
       <c r="O3" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="P3" s="146" t="s">
+      <c r="P3" s="154" t="s">
         <v>18</v>
       </c>
-      <c r="Q3" s="148" t="s">
+      <c r="Q3" s="156" t="s">
         <v>19</v>
       </c>
       <c r="R3" s="70"/>
-      <c r="S3" s="150">
+      <c r="S3" s="158">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="T3" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="U3" s="142" t="s">
+      <c r="T3" s="151" t="s">
+        <v>0</v>
+      </c>
+      <c r="U3" s="152" t="s">
         <v>18</v>
       </c>
-      <c r="V3" s="143" t="s">
+      <c r="V3" s="153" t="s">
         <v>20</v>
       </c>
     </row>
@@ -64968,29 +64968,29 @@
       <c r="A4" s="135"/>
       <c r="B4" s="135"/>
       <c r="C4" s="135"/>
-      <c r="D4" s="152"/>
+      <c r="D4" s="142"/>
       <c r="E4" s="135"/>
       <c r="F4" s="71"/>
       <c r="G4" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="154"/>
-      <c r="I4" s="156"/>
-      <c r="J4" s="145"/>
-      <c r="K4" s="158"/>
-      <c r="L4" s="145"/>
-      <c r="M4" s="145"/>
-      <c r="N4" s="145"/>
+      <c r="H4" s="144"/>
+      <c r="I4" s="146"/>
+      <c r="J4" s="148"/>
+      <c r="K4" s="150"/>
+      <c r="L4" s="148"/>
+      <c r="M4" s="148"/>
+      <c r="N4" s="148"/>
       <c r="O4" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="P4" s="147"/>
-      <c r="Q4" s="149"/>
+      <c r="P4" s="155"/>
+      <c r="Q4" s="157"/>
       <c r="R4" s="70"/>
-      <c r="S4" s="150"/>
-      <c r="T4" s="141"/>
-      <c r="U4" s="142"/>
-      <c r="V4" s="143"/>
+      <c r="S4" s="158"/>
+      <c r="T4" s="151"/>
+      <c r="U4" s="152"/>
+      <c r="V4" s="153"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A5" s="56">
@@ -79476,6 +79476,15 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="S3:S4"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
@@ -79486,15 +79495,6 @@
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="K3:K4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="S3:S4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -79504,7 +79504,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AA689"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
@@ -79535,24 +79535,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.5">
-      <c r="A1" s="151" t="s">
+      <c r="A1" s="141" t="s">
         <v>3447</v>
       </c>
-      <c r="B1" s="151"/>
-      <c r="C1" s="151"/>
-      <c r="D1" s="151"/>
-      <c r="E1" s="151"/>
-      <c r="F1" s="151"/>
-      <c r="G1" s="151"/>
-      <c r="H1" s="151"/>
-      <c r="I1" s="151"/>
-      <c r="J1" s="151"/>
-      <c r="K1" s="151"/>
-      <c r="L1" s="151"/>
-      <c r="M1" s="151"/>
-      <c r="N1" s="151"/>
-      <c r="O1" s="151"/>
-      <c r="P1" s="151"/>
+      <c r="B1" s="141"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="141"/>
+      <c r="I1" s="141"/>
+      <c r="J1" s="141"/>
+      <c r="K1" s="141"/>
+      <c r="L1" s="141"/>
+      <c r="M1" s="141"/>
+      <c r="N1" s="141"/>
+      <c r="O1" s="141"/>
+      <c r="P1" s="141"/>
       <c r="Q1" s="59"/>
       <c r="R1" s="126"/>
       <c r="S1" s="110"/>
@@ -79596,7 +79596,7 @@
       <c r="C3" s="135" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="152" t="s">
+      <c r="D3" s="142" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="135" t="s">
@@ -79606,47 +79606,47 @@
       <c r="G3" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="153" t="s">
+      <c r="H3" s="143" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="155" t="s">
+      <c r="I3" s="145" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="144" t="s">
+      <c r="J3" s="147" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="157" t="s">
+      <c r="K3" s="149" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="144" t="s">
+      <c r="L3" s="147" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="144" t="s">
+      <c r="M3" s="147" t="s">
         <v>16</v>
       </c>
-      <c r="N3" s="144" t="s">
+      <c r="N3" s="147" t="s">
         <v>17</v>
       </c>
       <c r="O3" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="P3" s="146" t="s">
+      <c r="P3" s="154" t="s">
         <v>18</v>
       </c>
-      <c r="Q3" s="148" t="s">
+      <c r="Q3" s="156" t="s">
         <v>19</v>
       </c>
       <c r="R3" s="128"/>
-      <c r="S3" s="150">
+      <c r="S3" s="158">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="T3" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="U3" s="142" t="s">
+      <c r="T3" s="151" t="s">
+        <v>0</v>
+      </c>
+      <c r="U3" s="152" t="s">
         <v>18</v>
       </c>
-      <c r="V3" s="143" t="s">
+      <c r="V3" s="153" t="s">
         <v>20</v>
       </c>
     </row>
@@ -79654,29 +79654,29 @@
       <c r="A4" s="135"/>
       <c r="B4" s="135"/>
       <c r="C4" s="135"/>
-      <c r="D4" s="152"/>
+      <c r="D4" s="142"/>
       <c r="E4" s="135"/>
       <c r="F4" s="112"/>
       <c r="G4" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="154"/>
-      <c r="I4" s="156"/>
-      <c r="J4" s="145"/>
-      <c r="K4" s="158"/>
-      <c r="L4" s="145"/>
-      <c r="M4" s="145"/>
-      <c r="N4" s="145"/>
+      <c r="H4" s="144"/>
+      <c r="I4" s="146"/>
+      <c r="J4" s="148"/>
+      <c r="K4" s="150"/>
+      <c r="L4" s="148"/>
+      <c r="M4" s="148"/>
+      <c r="N4" s="148"/>
       <c r="O4" s="114" t="s">
         <v>21</v>
       </c>
-      <c r="P4" s="147"/>
-      <c r="Q4" s="149"/>
+      <c r="P4" s="155"/>
+      <c r="Q4" s="157"/>
       <c r="R4" s="128"/>
-      <c r="S4" s="150"/>
-      <c r="T4" s="141"/>
-      <c r="U4" s="142"/>
-      <c r="V4" s="143"/>
+      <c r="S4" s="158"/>
+      <c r="T4" s="151"/>
+      <c r="U4" s="152"/>
+      <c r="V4" s="153"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A5" s="56">
@@ -84915,6 +84915,15 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="S3:S4"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
@@ -84925,15 +84934,6 @@
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="K3:K4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="S3:S4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
